--- a/medicine/Enfance/Bruno_Paquelier/Bruno_Paquelier.xlsx
+++ b/medicine/Enfance/Bruno_Paquelier/Bruno_Paquelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Paquelier est un auteur français de littérature jeunesse né le 24 janvier 1963 à Châteaurenaud en Saône-et-Loire[1],[2]. Il vit désormais près de Dijon, à Chevigny-Saint-Sauveur. Il est également professeur de lettres en collège depuis plus de 30 ans[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Paquelier est un auteur français de littérature jeunesse né le 24 janvier 1963 à Châteaurenaud en Saône-et-Loire,. Il vit désormais près de Dijon, à Chevigny-Saint-Sauveur. Il est également professeur de lettres en collège depuis plus de 30 ans.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier roman s'intitule Habib Diarra Champion du monde. La sortie du roman, dans lequel un joueur franco-malien s'apprête à transformer son tir au but en finale de Coupe du monde de football, a en effet concordé avec l'actualité sportive. En 2006, la France perdait en finale contre l'Italie. Traitant du racisme dans le football, la LICRA l'a récompensé de la Licra d'Or[4]. En juin 2006, il est également l'invité de Denis Cheissoux sur France Inter, pour L'as-tu lu, mon p'tit loup ?, seule émission à se consacrer depuis 25 ans à la littérature jeunesse. Il est régulièrement reçu dans les salons littéraires d'envergure[réf. nécessaire].
-Bruno Paquelier a ensuite publié six romans, dont La maison de la Tondue, Les sans-Papys (Prix Chronos 2010[5], et Prix Littéraire de la Citoyenneté 2009/10[6]), et Tous les matins, je regarde passer les filles (Prix Cétalire 2011[7]). Tous ses romans traitent de près ou de loin de la xénophobie et du racisme, de l'identité, et prônent la connaissance et le sport comme moyens d'émancipation et de tolérance.[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier roman s'intitule Habib Diarra Champion du monde. La sortie du roman, dans lequel un joueur franco-malien s'apprête à transformer son tir au but en finale de Coupe du monde de football, a en effet concordé avec l'actualité sportive. En 2006, la France perdait en finale contre l'Italie. Traitant du racisme dans le football, la LICRA l'a récompensé de la Licra d'Or. En juin 2006, il est également l'invité de Denis Cheissoux sur France Inter, pour L'as-tu lu, mon p'tit loup ?, seule émission à se consacrer depuis 25 ans à la littérature jeunesse. Il est régulièrement reçu dans les salons littéraires d'envergure[réf. nécessaire].
+Bruno Paquelier a ensuite publié six romans, dont La maison de la Tondue, Les sans-Papys (Prix Chronos 2010, et Prix Littéraire de la Citoyenneté 2009/10), et Tous les matins, je regarde passer les filles (Prix Cétalire 2011). Tous ses romans traitent de près ou de loin de la xénophobie et du racisme, de l'identité, et prônent la connaissance et le sport comme moyens d'émancipation et de tolérance.[réf. nécessaire]
 Son roman Cours, Hana! en est le meilleur exemple[réf. nécessaire]. Il raconte le parcours d'une jeune Syrienne fuyant la guerre, réfugiée à Lyon, et recrutée par l'équipe féminine de l'Olympique lyonnais. Son talent footballistique la contraint de choisir son équipe nationale, entre celle de sa terre natale, et celle de sa terre d'accueil.
-Certains de ses romans font partie des programmes de l'Éducation nationale. C'est notamment le cas de La maison de la Tondue, étudié en histoire au collège[réf. nécessaire] pour évoquer le sort des femmes ayant fréquenté de trop près les soldats allemands. Toute l'œuvre de Bruno Paquelier a été l'objet de critiques littéraires[réf. nécessaire], notamment par Choisir un livre[8], un des rares acteurs de la critique de littérature jeunesse.
+Certains de ses romans font partie des programmes de l'Éducation nationale. C'est notamment le cas de La maison de la Tondue, étudié en histoire au collège[réf. nécessaire] pour évoquer le sort des femmes ayant fréquenté de trop près les soldats allemands. Toute l'œuvre de Bruno Paquelier a été l'objet de critiques littéraires[réf. nécessaire], notamment par Choisir un livre, un des rares acteurs de la critique de littérature jeunesse.
 </t>
         </is>
       </c>
